--- a/un-document/Signature Sheet.xlsx
+++ b/un-document/Signature Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA4D71A-495E-41D8-8C32-E4379BA56321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20.04.2021" sheetId="22" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="23" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -172,8 +172,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +370,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,9 +456,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,6 +508,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,22 +701,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="119.25" customHeight="1">
+    <row r="1" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -681,7 +725,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1">
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -696,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75">
+    <row r="3" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -707,231 +751,231 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="18.95" customHeight="1">
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="18.95" customHeight="1">
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18.95" customHeight="1">
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="18.95" customHeight="1">
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="18.95" customHeight="1">
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="18.95" customHeight="1">
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="18.95" customHeight="1">
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="18.95" customHeight="1">
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="18.95" customHeight="1">
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="18.95" customHeight="1">
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="18.95" customHeight="1">
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="18.95" customHeight="1">
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="18.95" customHeight="1">
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="18.95" customHeight="1">
+    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="18.95" customHeight="1">
+    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="18.95" customHeight="1">
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="18.95" customHeight="1">
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="18.95" customHeight="1">
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="18.95" customHeight="1">
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="18.95" customHeight="1">
+    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="18.95" customHeight="1">
+    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="18.95" customHeight="1">
+    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="18.95" customHeight="1">
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="18.95" customHeight="1">
+    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="18.95" customHeight="1">
+    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="18.95" customHeight="1">
+    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="18.95" customHeight="1">
+    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="18.95" customHeight="1">
+    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="18.95" customHeight="1">
+    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="18.95" customHeight="1">
+    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="18.95" customHeight="1">
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="18.95" customHeight="1">
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="18.95" customHeight="1">
+    <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -949,16 +993,4 @@
   <pageMargins left="0.52" right="0.2" top="0.42" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>